--- a/Final_code/Test_Times.xlsx
+++ b/Final_code/Test_Times.xlsx
@@ -5,19 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annelise\myRepos\The-BEST-GWAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annelise\myRepos\The-BEST-GWAS\Final_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="25(23)" sheetId="2" r:id="rId1"/>
-    <sheet name="250 (244)" sheetId="3" r:id="rId2"/>
-    <sheet name="2500" sheetId="4" r:id="rId3"/>
-    <sheet name="25000" sheetId="5" r:id="rId4"/>
-    <sheet name="25218" sheetId="6" r:id="rId5"/>
-    <sheet name="Calculations" sheetId="8" r:id="rId6"/>
+    <sheet name="gene_100" sheetId="9" r:id="rId2"/>
+    <sheet name="rsID_100" sheetId="10" r:id="rId3"/>
+    <sheet name="250 (244)" sheetId="3" r:id="rId4"/>
+    <sheet name="2500" sheetId="4" r:id="rId5"/>
+    <sheet name="25000" sheetId="5" r:id="rId6"/>
+    <sheet name="25218" sheetId="6" r:id="rId7"/>
+    <sheet name="Calculations" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>File Length</t>
   </si>
@@ -59,6 +61,33 @@
   </si>
   <si>
     <t>Time multiple</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> genes </t>
+  </si>
+  <si>
+    <t>rsIDs</t>
+  </si>
+  <si>
+    <t>Average dbSNP time</t>
+  </si>
+  <si>
+    <t>Total time</t>
+  </si>
+  <si>
+    <t>Seconds</t>
+  </si>
+  <si>
+    <t>Minutes</t>
+  </si>
+  <si>
+    <t>Genes</t>
+  </si>
+  <si>
+    <t>Runs</t>
+  </si>
+  <si>
+    <t>Time (s)</t>
   </si>
 </sst>
 </file>
@@ -114,6 +143,3215 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>rsID vs gene</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gene_100!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Genes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>gene_100!$A$20:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>gene_100!$B$20:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>116.444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.709990000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.168000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>108.77800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gene_100!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rsIDs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>gene_100!$A$20:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>gene_100!$C$20:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>102.27800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.606999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.037999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>103.003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.786000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="344762936"/>
+        <c:axId val="344766464"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="344762936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>run #</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344766464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="344766464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344762936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>rsID: FIle Length vs Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculations!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Calculations!$M$2:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Calculations!$N$2:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.9197999600000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106.40180000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>717.8418000698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="338912280"/>
+        <c:axId val="338910320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="338912280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>File length (# of lines)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338910320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="338910320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.35961030912802566"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338912280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>log(File</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Length vs Time)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Calculations!$M$10:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Calculations!$N$10:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0765938602090173</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.905673629012036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="338909928"/>
+        <c:axId val="338910712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="338909928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log(#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> fo lines)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338910712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="338910712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log(seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338909928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>13412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314908</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>35184</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133155</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>186417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>420849</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>17688</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,10 +3762,355 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>100</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>100</v>
+      </c>
+      <c r="E1">
+        <v>100</v>
+      </c>
+      <c r="F1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>158</v>
+      </c>
+      <c r="C2">
+        <v>158</v>
+      </c>
+      <c r="D2">
+        <v>158</v>
+      </c>
+      <c r="E2">
+        <v>158</v>
+      </c>
+      <c r="F2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0.71867999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.57811999999999997</v>
+      </c>
+      <c r="D3">
+        <v>0.60887000000000002</v>
+      </c>
+      <c r="E3">
+        <v>0.60932900000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.67281009999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>116.444</v>
+      </c>
+      <c r="C4">
+        <v>92.34</v>
+      </c>
+      <c r="D4">
+        <v>98.709990000000005</v>
+      </c>
+      <c r="E4">
+        <v>98.168000000000006</v>
+      </c>
+      <c r="F4">
+        <v>108.778000116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <f>AVERAGE(B4:F4)</f>
+        <v>102.8879980232</v>
+      </c>
+      <c r="C7">
+        <f>B7/60</f>
+        <v>1.7147999670533334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>158</v>
+      </c>
+      <c r="C10">
+        <v>158</v>
+      </c>
+      <c r="D10">
+        <v>158</v>
+      </c>
+      <c r="E10">
+        <v>158</v>
+      </c>
+      <c r="F10">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0.6411519</v>
+      </c>
+      <c r="C11">
+        <v>0.57970250000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.58226599999999995</v>
+      </c>
+      <c r="E11">
+        <v>0.64561000000000002</v>
+      </c>
+      <c r="F11">
+        <v>0.56735440000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>102.27800000000001</v>
+      </c>
+      <c r="C12">
+        <v>92.606999999999999</v>
+      </c>
+      <c r="D12">
+        <v>93.037999999999997</v>
+      </c>
+      <c r="E12">
+        <v>103.003</v>
+      </c>
+      <c r="F12">
+        <v>90.786000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <f>AVERAGE(B12:F12)</f>
+        <v>96.342399999999998</v>
+      </c>
+      <c r="C15">
+        <f>B15/60</f>
+        <v>1.6057066666666666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>116.444</v>
+      </c>
+      <c r="C20">
+        <v>102.27800000000001</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f>LOG(B20)</f>
+        <v>2.0661171155926934</v>
+      </c>
+      <c r="G20">
+        <f>LOG(C20)</f>
+        <v>2.0097822270052932</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>92.34</v>
+      </c>
+      <c r="C21">
+        <v>92.606999999999999</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21:F24" si="0">LOG(B21)</f>
+        <v>1.9653898702151225</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G24" si="1">LOG(C21)</f>
+        <v>1.9666438154775496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>98.709990000000005</v>
+      </c>
+      <c r="C22">
+        <v>93.037999999999997</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1.9943611079109893</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>1.9686603659691067</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>98.168000000000006</v>
+      </c>
+      <c r="C23">
+        <v>103.003</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1.9919699430999953</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>2.0128498738748037</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>108.77800000000001</v>
+      </c>
+      <c r="C24">
+        <v>90.786000000000001</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>2.0365410695835031</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>1.9580188816540502</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" activeCellId="1" sqref="B8 B11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +4220,10 @@
         <v>106.40180000000001</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <f>B8/60</f>
+        <v>1.7733633333333334</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -667,12 +4253,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,6 +4362,10 @@
         <f>AVERAGE(C2:C6)</f>
         <v>717.8418000698</v>
       </c>
+      <c r="D8" s="1">
+        <f>B8/60</f>
+        <v>11.964030001163334</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -791,7 +4381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -803,7 +4393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -815,12 +4405,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J9:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +4419,7 @@
     <col min="2" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>25</v>
       </c>
@@ -845,8 +4435,14 @@
       <c r="F1">
         <v>25218</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -859,8 +4455,15 @@
       <c r="D2">
         <v>717.8418000698</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>25</v>
+      </c>
+      <c r="N2">
+        <f>B2</f>
+        <v>8.9197999600000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -873,8 +4476,15 @@
       <c r="D3">
         <v>0.41302132573580003</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>250</v>
+      </c>
+      <c r="N3">
+        <f>C2</f>
+        <v>106.40180000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -897,8 +4507,15 @@
         <f t="shared" si="0"/>
         <v>218</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>2500</v>
+      </c>
+      <c r="N4">
+        <f>D2</f>
+        <v>717.8418000698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -910,7 +4527,7 @@
         <v>97.482000040000003</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -918,8 +4535,36 @@
         <f>C4/C5</f>
         <v>2.3081184209154024</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <f>N3/N2</f>
+        <v>11.928720428389518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <f>100</f>
+        <v>100</v>
+      </c>
+      <c r="N8">
+        <f>N4/N2</f>
+        <v>80.477342910030899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>25</v>
       </c>
@@ -931,8 +4576,16 @@
         <f>B10/B10</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <f>LOG10(M6)</f>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f>LOG10(N6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>250</v>
       </c>
@@ -947,8 +4600,16 @@
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <f>LOG10(M7)</f>
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f>LOG(N7)</f>
+        <v>1.0765938602090173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2500</v>
       </c>
@@ -964,13 +4625,21 @@
         <f>C12/C11</f>
         <v>6.7465193264568821</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <f>LOG10(M8)</f>
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <f>LOG(N8)</f>
+        <v>1.905673629012036</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>25000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25</v>
       </c>
@@ -982,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>250</v>
       </c>
@@ -1034,5 +4703,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>